--- a/biology/Zoologie/Bothriechis_bicolor/Bothriechis_bicolor.xlsx
+++ b/biology/Zoologie/Bothriechis_bicolor/Bothriechis_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothriechis bicolor est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothriechis bicolor est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le Nord-Ouest du Honduras ;
 au Guatemala ;
 au Mexique dans le Sud-Ouest du Chiapas.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1] mesurant en général entre 60 et 70 cm mais pouvant atteindre jusqu'à 100 cm. Son dos[2] est vert tendre et sa face ventrale jaune légèrement verdâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux mesurant en général entre 60 et 70 cm mais pouvant atteindre jusqu'à 100 cm. Son dos est vert tendre et sa face ventrale jaune légèrement verdâtre.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin bicolor, « à deux couleurs », lui a été donné en référence à sa livrée.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocourt, 1868 : Descriptions de quelques crotaliens nouveaux appartenant au genre Bothrops, recueillis dans le Guatémala. Annales Des Sciences Naturelles, Paris, sér. 5, vol. 10, p. 201-202 (texte intégral).</t>
         </is>
